--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file-chart.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file-chart.xlsx
@@ -145,7 +145,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
@@ -153,32 +153,59 @@
     <xf numFmtId="49" fontId="2" fillId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="3" fillId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1">
       <alignment horizontal="left" vertical="center"/>
@@ -186,43 +213,79 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="3">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="4">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="5">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="6">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="7">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" xfId="8">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" xfId="10">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" xfId="3">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="4">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="6">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="7">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="9">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="10">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="11">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="12">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="13">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" xfId="14">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="16">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="17">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" xfId="18">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" xfId="19">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="20">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="_Default_" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
-    <cellStyle name="ValueTextStyle" xfId="3"/>
-    <cellStyle name="NumericStandardStyle" xfId="4"/>
-    <cellStyle name="NumericStandardWithBorderStyle" xfId="5"/>
-    <cellStyle name="NumericWithoutDecimalsStyle" xfId="6"/>
-    <cellStyle name="NumericWithoutDecimalsWithBorderStyle" xfId="7"/>
-    <cellStyle name="EmptyLineStyle" xfId="8"/>
-    <cellStyle name="TitleLineStyle" xfId="9"/>
-    <cellStyle name="FirstLineStyle" xfId="10"/>
+    <cellStyle name="HeaderStyle_Alternate" xfId="3"/>
+    <cellStyle name="ValueTextStyle" xfId="4"/>
+    <cellStyle name="ValueTextStyle_Alternate" xfId="5"/>
+    <cellStyle name="NumericStandardStyle" xfId="6"/>
+    <cellStyle name="NumericStandardStyle_Alternate" xfId="7"/>
+    <cellStyle name="NumericStandardWithBorderStyle" xfId="8"/>
+    <cellStyle name="NumericStandardWithBorderStyle_Alternate" xfId="9"/>
+    <cellStyle name="NumericWithoutDecimalsStyle" xfId="10"/>
+    <cellStyle name="NumericWithoutDecimalsStyle_Alternate" xfId="11"/>
+    <cellStyle name="NumericWithoutDecimalsWithBorderStyle" xfId="12"/>
+    <cellStyle name="NumericWithoutDecimalsWithBorderStyle_Alternate" xfId="13"/>
+    <cellStyle name="EmptyLineStyle" xfId="14"/>
+    <cellStyle name="EmptyLineStyle_Alternate" xfId="15"/>
+    <cellStyle name="TitleLineStyle" xfId="16"/>
+    <cellStyle name="TitleLineStyle_Alternate" xfId="17"/>
+    <cellStyle name="FirstLineStyle" xfId="18"/>
+    <cellStyle name="FirstLineStyle_Alternate" xfId="19"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -393,100 +456,100 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="10">
         <v>37</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>3.9900000095367432</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>147.6300048828125</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="11">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>12.100000381469727</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>60.5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>12</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>15.369999885559082</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>184.44000244140625</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="11">
         <v>20</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>160</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="10">
         <v>7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>23.479999542236328</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>164.36000061035156</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12">
         <f>SUBTOTAL(109,C2:C6)</f>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <f>SUBTOTAL(109,D2:D6)</f>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="8">
         <f>SUBTOTAL(109,E2:E6)</f>
       </c>
     </row>

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file-chart.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file-chart.xlsx
@@ -101,7 +101,7 @@
       <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +126,12 @@
         <bgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000" tint="0"/>
+        <bgColor rgb="FFFFFF" tint="0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -145,7 +151,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
@@ -204,8 +210,14 @@
     <xf numFmtId="166" fontId="3" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1">
       <alignment horizontal="left" vertical="center"/>
@@ -264,8 +276,14 @@
     <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" xfId="19">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" xfId="20">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="21">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="_Default_" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
@@ -286,6 +304,8 @@
     <cellStyle name="TitleLineStyle_Alternate" xfId="17"/>
     <cellStyle name="FirstLineStyle" xfId="18"/>
     <cellStyle name="FirstLineStyle_Alternate" xfId="19"/>
+    <cellStyle name="WhenChangeIdStyle" xfId="20"/>
+    <cellStyle name="WhenChangeIdStyle_Alternate" xfId="21"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
